--- a/Testing/IMU data/pendulum2.xlsx
+++ b/Testing/IMU data/pendulum2.xlsx
@@ -1,26 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9510 i9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tris/Documents/2022UCT/2nd sem/3097/SHARC_buoy_data_transmission/Testing/IMU data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F43A73D5-CE63-444C-BC45-2837879B2368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF572A0-4D8F-B240-8890-C6DF6544AF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="18180" windowHeight="11664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pendulum2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,6 +585,1741 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Accelorometer Pendulum Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>pendulum2!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC8F-8047-AA42-65E50ED962FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>pendulum2!$B$2:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC8F-8047-AA42-65E50ED962FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>pendulum2!$C$2:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.126</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC8F-8047-AA42-65E50ED962FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="40506448"/>
+        <c:axId val="104169936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40506448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104169936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104169936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40506448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>113393</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179289</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EEBBB8-C9C0-3EE2-6F8F-BE1E9EC93492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -854,476 +2616,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>-0.04</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0.23</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>0.04</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>-0.06</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-0.08</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>-0.13</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-0.37</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-0.16</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.27</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>0.06</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.35</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.1014</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>-0.03</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>-0.12</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>-0.1</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>-0.46</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>-0.04</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-0.08</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>-0.06</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0.08</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>0.02</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>0.16</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>-0.08</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-0.11</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>-0.15</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>-0.23</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>-0.09</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>-0.08</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>-0.03</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>0.18</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>0.03</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>0.23</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>-0.06</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>-0.02</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>-0.24</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>-0.27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>-0.05</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>-0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>-0.03</v>
-      </c>
-      <c r="B20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C20">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-0.03</v>
       </c>
       <c r="B21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C21">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-0.03</v>
+      </c>
+      <c r="B22">
         <v>0.05</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>-0.06</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>-0.06</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>-0.1</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>-0.12</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>-0.08</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-0.08</v>
       </c>
       <c r="B25">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="B26">
         <v>0.13</v>
       </c>
       <c r="C26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-0.03</v>
+      </c>
+      <c r="B27">
+        <v>0.13</v>
+      </c>
+      <c r="C27">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>-0.04</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>-0.02</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.01</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>-0.04</v>
-      </c>
-      <c r="B30">
-        <v>0.05</v>
-      </c>
-      <c r="C30">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-0.04</v>
       </c>
       <c r="B31">
+        <v>0.05</v>
+      </c>
+      <c r="C31">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-0.04</v>
+      </c>
+      <c r="B32">
         <v>0.02</v>
-      </c>
-      <c r="C31">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>-0.06</v>
-      </c>
-      <c r="B32">
-        <v>-0.02</v>
       </c>
       <c r="C32">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>-0.06</v>
+      </c>
+      <c r="B33">
+        <v>-0.02</v>
+      </c>
+      <c r="C33">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>-0.09</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>-0.05</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>-0.05</v>
-      </c>
-      <c r="B34">
-        <v>0.03</v>
-      </c>
-      <c r="C34">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-0.05</v>
       </c>
       <c r="B35">
+        <v>0.03</v>
+      </c>
+      <c r="C35">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-0.05</v>
+      </c>
+      <c r="B36">
         <v>0.13</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>-0.04</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.1</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>-0.02</v>
-      </c>
-      <c r="B37">
-        <v>-0.03</v>
-      </c>
-      <c r="C37">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-0.02</v>
       </c>
       <c r="B38">
+        <v>-0.03</v>
+      </c>
+      <c r="C38">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>-0.02</v>
+      </c>
+      <c r="B39">
         <v>-0.11</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>0</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>-0.03</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>-0.03</v>
-      </c>
-      <c r="B40">
-        <v>0.03</v>
-      </c>
-      <c r="C40">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>-0.04</v>
       </c>
       <c r="B41">
         <v>0.03</v>
       </c>
       <c r="C41">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>-0.04</v>
+      </c>
+      <c r="B42">
+        <v>0.03</v>
+      </c>
+      <c r="C42">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>-0.06</v>
-      </c>
-      <c r="B42">
-        <v>-0.04</v>
-      </c>
-      <c r="C42">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-0.06</v>
       </c>
@@ -1331,276 +3095,276 @@
         <v>-0.04</v>
       </c>
       <c r="C43">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>-0.06</v>
+      </c>
+      <c r="B44">
+        <v>-0.04</v>
+      </c>
+      <c r="C44">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>-0.03</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>0.05</v>
-      </c>
-      <c r="C44">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>-0.04</v>
-      </c>
-      <c r="B45">
-        <v>0.11</v>
       </c>
       <c r="C45">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>-0.04</v>
+      </c>
+      <c r="B46">
+        <v>0.11</v>
+      </c>
+      <c r="C46">
         <v>-0.03</v>
       </c>
-      <c r="B46">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>-0.03</v>
+      </c>
+      <c r="B47">
         <v>0.03</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>-0.03</v>
-      </c>
-      <c r="C47">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
       <c r="B48">
+        <v>-0.03</v>
+      </c>
+      <c r="C48">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
         <v>-0.04</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0.01</v>
-      </c>
-      <c r="B49">
-        <v>0.01</v>
-      </c>
-      <c r="C49">
-        <v>-0.126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>-0.03</v>
       </c>
       <c r="B50">
         <v>0.01</v>
       </c>
       <c r="C50">
+        <v>-0.126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>-0.03</v>
+      </c>
+      <c r="B51">
+        <v>0.01</v>
+      </c>
+      <c r="C51">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>-0.02</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>0.04</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>-0.05</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>-0.03</v>
-      </c>
-      <c r="C52">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>-0.04</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
       <c r="C53">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="B54">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-0.02</v>
       </c>
       <c r="B55">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="C55">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>-0.02</v>
+      </c>
+      <c r="B56">
+        <v>0.09</v>
+      </c>
+      <c r="C56">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>-0.01</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>0.02</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>-0.02</v>
-      </c>
-      <c r="C57">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
       <c r="B58">
+        <v>-0.02</v>
+      </c>
+      <c r="C58">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
         <v>-0.01</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>0.01</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>0.03</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>-0.03</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>-0.01</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>-0.01</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>0.01</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>-0.09</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>-0.03</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>0.02</v>
-      </c>
-      <c r="C62">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>-0.01</v>
-      </c>
-      <c r="B63">
-        <v>0.03</v>
       </c>
       <c r="C63">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="B64">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C64">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-0.02</v>
       </c>
       <c r="B65">
+        <v>0.05</v>
+      </c>
+      <c r="C65">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>-0.02</v>
+      </c>
+      <c r="B66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>-0.03</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>0.03</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>-0.01</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>0</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1609,18 +3373,18 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
       <c r="B69">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
@@ -1628,791 +3392,143 @@
         <v>0.01</v>
       </c>
       <c r="C70">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="B71">
         <v>0.01</v>
       </c>
       <c r="C71">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="B72">
         <v>0.01</v>
       </c>
       <c r="C72">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>-0.03</v>
+      </c>
+      <c r="B73">
+        <v>0.01</v>
+      </c>
+      <c r="C73">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>-0.02</v>
-      </c>
-      <c r="B73">
-        <v>0.04</v>
-      </c>
-      <c r="C73">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-0.02</v>
       </c>
       <c r="B74">
+        <v>0.04</v>
+      </c>
+      <c r="C74">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>-0.02</v>
+      </c>
+      <c r="B75">
         <v>0.05</v>
-      </c>
-      <c r="C74">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>-0.01</v>
-      </c>
-      <c r="B75">
-        <v>0.04</v>
       </c>
       <c r="C75">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-0.01</v>
       </c>
       <c r="B76">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C76">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-0.01</v>
       </c>
       <c r="B77">
+        <v>0.05</v>
+      </c>
+      <c r="C77">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>-0.01</v>
+      </c>
+      <c r="B78">
         <v>0.06</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>0.02</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>0.05</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>-0.11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>0</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>0.04</v>
-      </c>
-      <c r="C79">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>0.01</v>
-      </c>
-      <c r="B80">
-        <v>0.01</v>
       </c>
       <c r="C80">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="B81">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C81">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0.3</v>
+        <v>-0.01</v>
       </c>
       <c r="B82">
-        <v>1.26</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C82">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>0.27</v>
-      </c>
-      <c r="B83">
-        <v>0.82</v>
-      </c>
-      <c r="C83">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B84">
-        <v>0.93</v>
-      </c>
-      <c r="C84">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="B85">
-        <v>0.76</v>
-      </c>
-      <c r="C85">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>0.32</v>
-      </c>
-      <c r="B86">
-        <v>0.86</v>
-      </c>
-      <c r="C86">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>0.11</v>
-      </c>
-      <c r="B87">
-        <v>0.64</v>
-      </c>
-      <c r="C87">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>0.11</v>
-      </c>
-      <c r="B88">
-        <v>0.75</v>
-      </c>
-      <c r="C88">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>0.2</v>
-      </c>
-      <c r="B89">
-        <v>0.75</v>
-      </c>
-      <c r="C89">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>0.11</v>
-      </c>
-      <c r="B90">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C90">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>0.09</v>
-      </c>
-      <c r="B91">
-        <v>1.19</v>
-      </c>
-      <c r="C91">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>0</v>
-      </c>
-      <c r="B92">
-        <v>0.74</v>
-      </c>
-      <c r="C92">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>0.04</v>
-      </c>
-      <c r="B93">
-        <v>0.84</v>
-      </c>
-      <c r="C93">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>0.06</v>
-      </c>
-      <c r="B94">
-        <v>0.84</v>
-      </c>
-      <c r="C94">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>-0.06</v>
-      </c>
-      <c r="B95">
-        <v>0.9</v>
-      </c>
-      <c r="C95">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>-0.04</v>
-      </c>
-      <c r="B96">
-        <v>0.93</v>
-      </c>
-      <c r="C96">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>0.04</v>
-      </c>
-      <c r="B97">
-        <v>0.94</v>
-      </c>
-      <c r="C97">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>-0.01</v>
-      </c>
-      <c r="B98">
-        <v>0.95</v>
-      </c>
-      <c r="C98">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>0</v>
-      </c>
-      <c r="B99">
-        <v>0.95</v>
-      </c>
-      <c r="C99">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>0.01</v>
-      </c>
-      <c r="B100">
-        <v>0.93</v>
-      </c>
-      <c r="C100">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>0.01</v>
-      </c>
-      <c r="B101">
-        <v>0.93</v>
-      </c>
-      <c r="C101">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="B102">
-        <v>0.95</v>
-      </c>
-      <c r="C102">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>0</v>
-      </c>
-      <c r="B103">
-        <v>0.99</v>
-      </c>
-      <c r="C103">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>-0.02</v>
-      </c>
-      <c r="B104">
-        <v>0.99</v>
-      </c>
-      <c r="C104">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>0.01</v>
-      </c>
-      <c r="B105">
-        <v>0.94</v>
-      </c>
-      <c r="C105">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>-0.06</v>
-      </c>
-      <c r="B106">
-        <v>0.93</v>
-      </c>
-      <c r="C106">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>0.02</v>
-      </c>
-      <c r="B107">
-        <v>0.98</v>
-      </c>
-      <c r="C107">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>0.98</v>
-      </c>
-      <c r="C108">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>-0.01</v>
-      </c>
-      <c r="B109">
-        <v>0.99</v>
-      </c>
-      <c r="C109">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>-0.01</v>
-      </c>
-      <c r="B110">
-        <v>0.98</v>
-      </c>
-      <c r="C110">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>-0.01</v>
-      </c>
-      <c r="B111">
-        <v>0.94</v>
-      </c>
-      <c r="C111">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>-0.03</v>
-      </c>
-      <c r="B112">
-        <v>1.03</v>
-      </c>
-      <c r="C112">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>0.01</v>
-      </c>
-      <c r="B113">
-        <v>1.2</v>
-      </c>
-      <c r="C113">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>-0.04</v>
-      </c>
-      <c r="B114">
-        <v>1.01</v>
-      </c>
-      <c r="C114">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>0.12</v>
-      </c>
-      <c r="B115">
-        <v>1.04</v>
-      </c>
-      <c r="C115">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>0.12</v>
-      </c>
-      <c r="B116">
-        <v>0.98</v>
-      </c>
-      <c r="C116">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>0.26</v>
-      </c>
-      <c r="B117">
-        <v>0.9</v>
-      </c>
-      <c r="C117">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>0.24</v>
-      </c>
-      <c r="B118">
-        <v>0.98</v>
-      </c>
-      <c r="C118">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>0.22</v>
-      </c>
-      <c r="B119">
-        <v>1.23</v>
-      </c>
-      <c r="C119">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>0.15</v>
-      </c>
-      <c r="B120">
-        <v>1.05</v>
-      </c>
-      <c r="C120">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>0.15</v>
-      </c>
-      <c r="B121">
-        <v>1.05</v>
-      </c>
-      <c r="C121">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>0.15</v>
-      </c>
-      <c r="B122">
-        <v>1.05</v>
-      </c>
-      <c r="C122">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>0.13</v>
-      </c>
-      <c r="B123">
-        <v>1.03</v>
-      </c>
-      <c r="C123">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>0.15</v>
-      </c>
-      <c r="B124">
-        <v>1.04</v>
-      </c>
-      <c r="C124">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>-0.16</v>
-      </c>
-      <c r="B125">
-        <v>0.71</v>
-      </c>
-      <c r="C125">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>0.16</v>
-      </c>
-      <c r="B126">
-        <v>1.07</v>
-      </c>
-      <c r="C126">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>0.18</v>
-      </c>
-      <c r="B127">
-        <v>1.07</v>
-      </c>
-      <c r="C127">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>0.15</v>
-      </c>
-      <c r="B128">
-        <v>1.05</v>
-      </c>
-      <c r="C128">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>0.03</v>
-      </c>
-      <c r="B129">
-        <v>0.99</v>
-      </c>
-      <c r="C129">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>0.17</v>
-      </c>
-      <c r="B130">
-        <v>0.98</v>
-      </c>
-      <c r="C130">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>0.12</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>0.37</v>
-      </c>
-      <c r="B132">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C132">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>0.11</v>
-      </c>
-      <c r="B133">
-        <v>1.05</v>
-      </c>
-      <c r="C133">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>0.17</v>
-      </c>
-      <c r="B134">
-        <v>1.05</v>
-      </c>
-      <c r="C134">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>0.27</v>
-      </c>
-      <c r="B135">
-        <v>1.06</v>
-      </c>
-      <c r="C135">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>0.15</v>
-      </c>
-      <c r="B136">
-        <v>1.04</v>
-      </c>
-      <c r="C136">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>0.15</v>
-      </c>
-      <c r="B137">
-        <v>1.04</v>
-      </c>
-      <c r="C137">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>0.15</v>
-      </c>
-      <c r="B138">
-        <v>1.05</v>
-      </c>
-      <c r="C138">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>0.15</v>
-      </c>
-      <c r="B139">
-        <v>1.06</v>
-      </c>
-      <c r="C139">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>0.18</v>
-      </c>
-      <c r="B140">
-        <v>1.07</v>
-      </c>
-      <c r="C140">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>0.11</v>
-      </c>
-      <c r="B141">
-        <v>0.97</v>
-      </c>
-      <c r="C141">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>